--- a/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>-15,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,48</t>
+          <t>-12,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>-18,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>-10,95%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-15,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-10,29%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 17,04</t>
+          <t>-23,47; -6,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 12,46</t>
+          <t>-16,55; -0,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 12,25</t>
+          <t>-18,58; 7,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 19,19</t>
+          <t>-21,46; -3,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 131,4</t>
+          <t>-19,43; 16,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 115,07</t>
+          <t>-26,81; -8,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 74,29</t>
+          <t>-18,84; -0,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,65; 166,97</t>
+          <t>-22,57; 10,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,82; -4,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-25,06; 31,12</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>-10,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>-11,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-13,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-8,33%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 16,9</t>
+          <t>-18,18; 1,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 13,63</t>
+          <t>-17,39; 0,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 17,3</t>
+          <t>-19,34; 2,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 21,77</t>
+          <t>-22,69; 0,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 144,51</t>
+          <t>-17,11; 4,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 135,52</t>
+          <t>-20,59; 1,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 114,33</t>
+          <t>-19,54; 1,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 134,17</t>
+          <t>-22,7; 2,48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-26,78; 0,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,22; 6,02</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,53</t>
+          <t>27,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-53,57%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-48,89%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>46,91%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-11,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29,49%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 14,48</t>
+          <t>-24,2; 6,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 3,04</t>
+          <t>-0,35; 36,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 0,12</t>
+          <t>1,0; 61,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 19,12</t>
+          <t>-33,65; 20,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 296,19</t>
+          <t>-16,05; 49,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-90,33; 52,07</t>
+          <t>-25,77; 7,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 7,9</t>
+          <t>-0,68; 59,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 142,64</t>
+          <t>1,68; 193,72</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,64; 40,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-24,01; 200,74</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>-12,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>-11,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>-6,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-14,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 14,25</t>
+          <t>-18,83; -6,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,29</t>
+          <t>-11,35; 0,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 9,9</t>
+          <t>-12,72; 4,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,45</t>
+          <t>-18,57; -4,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,23; 108,62</t>
+          <t>-13,12; 8,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 78,73</t>
+          <t>-21,16; -7,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 52,83</t>
+          <t>-13,23; 0,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,25; 104,59</t>
+          <t>-15,45; 6,04</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-22,33; -5,77</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 14,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-15,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,42</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,55</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-7,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-18,1%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-9,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-10,95%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-15,41%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-10,29%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-15.29027632665379</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.4281870846015</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-9.268787392836009</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-12.63103587298233</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-6.475041529633985</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1810234359328067</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.07770720478557304</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1182993787191778</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1542803195964434</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.0939127252091068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,47; -6,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,55; -0,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 7,36</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,46; -3,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,43; 16,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-26,81; -8,71</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-18,84; -0,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; 10,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-24,82; -4,57</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-25,06; 31,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.46513182598883</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.73101512274008</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.40344690865754</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-21.51969965332817</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-19.04168215288036</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2681128307577212</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1722547641857899</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2330921186663677</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2494790261803092</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2460397867671222</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-6.964759460243113</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.997984789393644</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.790249106093947</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-3.396629494435795</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>17.96657171950022</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.08710080323201982</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.03791636710583194</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.06683257948176094</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.04785836102199415</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3385346759849084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,12</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,61</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-10,39%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-9,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-11,1%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-13,67%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-8,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,18; 1,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 0,91</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 2,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-22,69; 0,43</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-17,11; 4,28</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 1,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-19,54; 1,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 2,48</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-26,78; 0,56</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-20,22; 6,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-8.778288891819541</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.929683504626527</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-8.254248761931448</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-10.14160540033946</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-5.239085878392268</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1039202119775586</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.08192757447633232</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1014252675172073</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1303509037025802</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.06654750143654488</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>16,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>27,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,83</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,94</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-10,32%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>20,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>46,91%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-11,04%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>29,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.17804628923113</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.91582838717536</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-18.67039876314892</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-22.41454622931554</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-15.83060160629002</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2058906516502778</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1897938166689825</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2177390389580834</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2666068998527582</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1839090420384193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-24,2; 6,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 36,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 61,32</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-33,65; 20,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; 49,03</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-25,77; 7,0</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 59,91</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 193,72</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-41,64; 40,21</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-24,01; 200,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.515316141632953</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.146911620074873</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.841725640139072</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.766259840695614</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.640573135865417</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.01857577930488221</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.04879187354399732</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.03842950450972341</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.02417806706673876</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.07718536224752695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-12,28</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,2</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-11,25</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,53</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-14,37%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-6,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-14,2%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-6,39%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-9.642301643148521</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>19.38687695175256</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>23.57950964534755</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.127219024946585</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>12.85389474852677</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1031532746474089</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2485404600657077</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3909987344102852</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1126705636680531</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.267823841826323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,83; -6,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; 0,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,72; 4,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-18,57; -4,37</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-13,12; 8,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; -7,45</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; 0,45</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-15,45; 6,04</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-22,33; -5,77</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-17,21; 14,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.20110531313595</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.370154393104573</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.175255057132299</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-34.40616044178237</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-16.71870612856426</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2577060060214712</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.0128257659492389</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.02698623962270779</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4066936791656628</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2460258353720664</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.835182813689991</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>40.13255118792631</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>54.27455315675282</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.94497577545924</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>49.16240356670354</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.06997842431727913</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7025735439434816</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.581625794522538</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3681937277502196</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.050522666894113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-12.28088868392749</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.057702154806487</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.582226111753375</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-11.04606360107417</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.79510971797703</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1436698638142083</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.04887718376059735</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07176862633841796</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1396408824636228</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.05389055758308682</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-18.83497805363565</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.1633336072946</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.20327628806042</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-18.30950602999235</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-12.58647310197822</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2116359133173807</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.11956088154747</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1616528480196437</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2213320306454097</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1643331837652195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-6.236949503810966</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.06509808730262</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.341925110786147</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-3.927335031184055</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>9.670603690086892</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.07452635744448226</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.02593262331254431</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.04454663567281693</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.05296071646112575</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1606181997898019</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
